--- a/diagnostico/nueva_base_1_2matriz_ACP_9Variables_PC1_Diagnostico.xlsx
+++ b/diagnostico/nueva_base_1_2matriz_ACP_9Variables_PC1_Diagnostico.xlsx
@@ -11893,7 +11893,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.02848589237834412</t>
+          <t>0.0286054106968726</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.08457795015586499</t>
+          <t>0.08511624344872096</t>
         </is>
       </c>
     </row>
@@ -11933,7 +11933,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.04947537871315032</t>
+          <t>0.049727739738646935</t>
         </is>
       </c>
     </row>
@@ -11953,7 +11953,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.06827120466389983</t>
+          <t>0.06866173595297823</t>
         </is>
       </c>
     </row>
@@ -11973,7 +11973,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.06665181183520404</t>
+          <t>0.06702964732967674</t>
         </is>
       </c>
     </row>
@@ -11993,7 +11993,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.08352253118876156</t>
+          <t>0.0840707689241156</t>
         </is>
       </c>
     </row>
@@ -12013,7 +12013,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.08495638660892406</t>
+          <t>0.08550190661348629</t>
         </is>
       </c>
     </row>
@@ -12033,7 +12033,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.082848028661143</t>
+          <t>0.08339355672962684</t>
         </is>
       </c>
     </row>
@@ -12053,7 +12053,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.08215310215938873</t>
+          <t>0.0826635525244314</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.08239917971966758</t>
+          <t>0.08291213813189162</t>
         </is>
       </c>
     </row>
@@ -12093,7 +12093,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.09723701720795663</t>
+          <t>0.09577293304295807</t>
         </is>
       </c>
     </row>
@@ -12113,7 +12113,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.08073133436471017</t>
+          <t>0.08126642051906374</t>
         </is>
       </c>
     </row>
@@ -12133,7 +12133,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.03779294709221016</t>
+          <t>0.03796849345067932</t>
         </is>
       </c>
     </row>
@@ -12153,7 +12153,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.07673993503997203</t>
+          <t>0.0772519773304845</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.08155861505137431</t>
+          <t>0.08206313933404143</t>
         </is>
       </c>
     </row>
@@ -12193,7 +12193,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.08326246790882624</t>
+          <t>0.08378457311691515</t>
         </is>
       </c>
     </row>
@@ -12213,7 +12213,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.061674696105631754</t>
+          <t>0.06208807396082209</t>
         </is>
       </c>
     </row>
@@ -12233,7 +12233,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.07244136961259806</t>
+          <t>0.07286547566929172</t>
         </is>
       </c>
     </row>
@@ -12253,7 +12253,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.07783509814072644</t>
+          <t>0.078305103517966</t>
         </is>
       </c>
     </row>
@@ -12273,7 +12273,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.12182907380243552</t>
+          <t>0.12028211376330902</t>
         </is>
       </c>
     </row>
@@ -12293,7 +12293,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.09184893131080708</t>
+          <t>0.09041246777484978</t>
         </is>
       </c>
     </row>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.14608521430831536</t>
+          <t>0.1458122135877305</t>
         </is>
       </c>
     </row>
@@ -12333,7 +12333,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.0757518050453026</t>
+          <t>0.07620366906078954</t>
         </is>
       </c>
     </row>
@@ -12353,7 +12353,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.07419417230017696</t>
+          <t>0.07463283337728573</t>
         </is>
       </c>
     </row>
@@ -12373,7 +12373,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.08094884257545744</t>
+          <t>0.08144744743886173</t>
         </is>
       </c>
     </row>
@@ -12393,7 +12393,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.03613525708557311</t>
+          <t>0.03630046962409142</t>
         </is>
       </c>
     </row>
@@ -12413,7 +12413,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.08424778076044263</t>
+          <t>0.08478150630862706</t>
         </is>
       </c>
     </row>
@@ -12433,7 +12433,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.08410555459627507</t>
+          <t>0.08463746702046374</t>
         </is>
       </c>
     </row>
@@ -12453,7 +12453,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.08303585551105369</t>
+          <t>0.08355549685701937</t>
         </is>
       </c>
     </row>
@@ -12473,7 +12473,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.0843029200183306</t>
+          <t>0.08485338959733511</t>
         </is>
       </c>
     </row>
@@ -12493,7 +12493,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.045288294618025166</t>
+          <t>0.045512340929716046</t>
         </is>
       </c>
     </row>
@@ -12513,7 +12513,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.073865582678855</t>
+          <t>0.0743597606102435</t>
         </is>
       </c>
     </row>
@@ -12533,7 +12533,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.05870987182720094</t>
+          <t>0.05902774747460482</t>
         </is>
       </c>
     </row>
@@ -12553,7 +12553,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.07031195908467114</t>
+          <t>0.07071875148037865</t>
         </is>
       </c>
     </row>
@@ -12573,7 +12573,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.08492790529636086</t>
+          <t>0.08547258726287119</t>
         </is>
       </c>
     </row>
@@ -12593,7 +12593,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.08483849620576746</t>
+          <t>0.08538876521179406</t>
         </is>
       </c>
     </row>
@@ -12613,7 +12613,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.0757474549645527</t>
+          <t>0.07625341468852098</t>
         </is>
       </c>
     </row>
@@ -12633,7 +12633,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.25199779476158757</t>
+          <t>0.2517060854222282</t>
         </is>
       </c>
     </row>
@@ -12653,7 +12653,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.14177174744196333</t>
+          <t>0.14020544475818839</t>
         </is>
       </c>
     </row>
@@ -12673,7 +12673,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.06894734863324566</t>
+          <t>0.06940964304188393</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.24818857458833876</t>
+          <t>0.2472814249500555</t>
         </is>
       </c>
     </row>
@@ -12713,7 +12713,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.0638551200105103</t>
+          <t>0.06428332204370195</t>
         </is>
       </c>
     </row>
@@ -12733,7 +12733,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.049972798397796156</t>
+          <t>0.05022858040551216</t>
         </is>
       </c>
     </row>
@@ -12753,7 +12753,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.07471795582095828</t>
+          <t>0.07521750646604751</t>
         </is>
       </c>
     </row>
@@ -12773,7 +12773,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.06502535908246178</t>
+          <t>0.06378476148276513</t>
         </is>
       </c>
     </row>
@@ -12793,7 +12793,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.06744622058489831</t>
+          <t>0.0678302621690607</t>
         </is>
       </c>
     </row>
@@ -12813,7 +12813,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.03270013548826773</t>
+          <t>0.03240422241378098</t>
         </is>
       </c>
     </row>
@@ -12833,7 +12833,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.07923793398056758</t>
+          <t>0.07976473696074368</t>
         </is>
       </c>
     </row>
@@ -12853,7 +12853,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.24111717210576172</t>
+          <t>0.2401033592946454</t>
         </is>
       </c>
     </row>
@@ -12873,7 +12873,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.1664181220418968</t>
+          <t>0.16488331220495667</t>
         </is>
       </c>
     </row>
@@ -12893,7 +12893,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.18600514986774036</t>
+          <t>0.18579775912932386</t>
         </is>
       </c>
     </row>
@@ -12913,7 +12913,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.2295898902719128</t>
+          <t>0.22939431436714788</t>
         </is>
       </c>
     </row>
@@ -12933,7 +12933,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.21735046208564335</t>
+          <t>0.21716500991115303</t>
         </is>
       </c>
     </row>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.06877984268762508</t>
+          <t>0.06917439862001333</t>
         </is>
       </c>
     </row>
@@ -12973,7 +12973,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.09575450645237103</t>
+          <t>0.09429766372854097</t>
         </is>
       </c>
     </row>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.2576007587342876</t>
+          <t>0.2572337772810963</t>
         </is>
       </c>
     </row>
@@ -13013,7 +13013,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.07762519678862395</t>
+          <t>0.07809334526718932</t>
         </is>
       </c>
     </row>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.08463526470814911</t>
+          <t>0.08518599300990048</t>
         </is>
       </c>
     </row>
@@ -13053,7 +13053,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.22267608874022984</t>
+          <t>0.22248819988230437</t>
         </is>
       </c>
     </row>
@@ -13073,7 +13073,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.03633608418839264</t>
+          <t>0.03602786163445576</t>
         </is>
       </c>
     </row>
@@ -13093,7 +13093,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.24955059516386735</t>
+          <t>0.24866699479721674</t>
         </is>
       </c>
     </row>
@@ -13113,7 +13113,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.23378372568943928</t>
+          <t>0.23358028285602653</t>
         </is>
       </c>
     </row>
@@ -13133,7 +13133,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.08321924299251304</t>
+          <t>0.08374087406684234</t>
         </is>
       </c>
     </row>
@@ -13153,7 +13153,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.20476201401100053</t>
+          <t>0.2045736567706379</t>
         </is>
       </c>
     </row>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.075548889312708</t>
+          <t>0.07605362028356874</t>
         </is>
       </c>
     </row>
@@ -13193,7 +13193,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.08493304219364407</t>
+          <t>0.08547786299952198</t>
         </is>
       </c>
     </row>
@@ -13213,7 +13213,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.1951773295990944</t>
+          <t>0.1949809105604036</t>
         </is>
       </c>
     </row>
@@ -13233,7 +13233,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.1694448736154857</t>
+          <t>0.1692124358845057</t>
         </is>
       </c>
     </row>
@@ -13253,7 +13253,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.0687907335535968</t>
+          <t>0.06925199304181605</t>
         </is>
       </c>
     </row>
@@ -13273,7 +13273,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.26065490418868853</t>
+          <t>0.26009504301108427</t>
         </is>
       </c>
     </row>
@@ -13293,7 +13293,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.08489513420101316</t>
+          <t>0.08543900827328275</t>
         </is>
       </c>
     </row>
@@ -13313,7 +13313,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.2596633872648913</t>
+          <t>0.25903724275842227</t>
         </is>
       </c>
     </row>
@@ -13333,7 +13333,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.07648653986049848</t>
+          <t>0.07694473265221799</t>
         </is>
       </c>
     </row>
@@ -13353,7 +13353,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0.06254533500226547</t>
+          <t>0.06296464552112276</t>
         </is>
       </c>
     </row>
@@ -13373,7 +13373,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.26000470227489386</t>
+          <t>0.25956881077496063</t>
         </is>
       </c>
     </row>
@@ -13393,7 +13393,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.07695960286160775</t>
+          <t>0.07747297702613468</t>
         </is>
       </c>
     </row>
@@ -13413,7 +13413,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0.07571693820033341</t>
+          <t>0.07622270932426634</t>
         </is>
       </c>
     </row>
@@ -13433,7 +13433,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.06480025095055932</t>
+          <t>0.0651637782885304</t>
         </is>
       </c>
     </row>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.0021820342850870566</t>
+          <t>0.0021833341379353544</t>
         </is>
       </c>
     </row>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.2151552545343559</t>
+          <t>0.21387007286687149</t>
         </is>
       </c>
     </row>
@@ -13493,7 +13493,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.21861886807345188</t>
+          <t>0.217362567564637</t>
         </is>
       </c>
     </row>
@@ -13513,7 +13513,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.07610067737927564</t>
+          <t>0.07660881350114175</t>
         </is>
       </c>
     </row>
@@ -13533,7 +13533,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0.0021008618846813398</t>
+          <t>0.0021020084336912967</t>
         </is>
       </c>
     </row>
@@ -13553,7 +13553,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0.044813558982842956</t>
+          <t>0.045034449491832176</t>
         </is>
       </c>
     </row>
@@ -13573,7 +13573,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0.2537143081222388</t>
+          <t>0.2529121417498466</t>
         </is>
       </c>
     </row>
@@ -13593,7 +13593,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0.08171498188754955</t>
+          <t>0.08222104850027472</t>
         </is>
       </c>
     </row>
@@ -13613,7 +13613,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.07455411430798936</t>
+          <t>0.07505263661877098</t>
         </is>
       </c>
     </row>
@@ -13633,7 +13633,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.08017570947056574</t>
+          <t>0.08066699153753876</t>
         </is>
       </c>
     </row>
@@ -13653,7 +13653,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.17390510007866047</t>
+          <t>0.17239186932780143</t>
         </is>
       </c>
     </row>
@@ -13673,7 +13673,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0.08144086499597938</t>
+          <t>0.08197967099490118</t>
         </is>
       </c>
     </row>
@@ -13693,7 +13693,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0.10967940378841382</t>
+          <t>0.1081648438931056</t>
         </is>
       </c>
     </row>
@@ -13713,7 +13713,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0.07867785368782847</t>
+          <t>0.07920142975503479</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0.2162093679710546</t>
+          <t>0.21602411232348728</t>
         </is>
       </c>
     </row>
@@ -13753,7 +13753,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.19231709972888406</t>
+          <t>0.1908816017931915</t>
         </is>
       </c>
     </row>
@@ -13773,7 +13773,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.08499179654162656</t>
+          <t>0.08553925994424869</t>
         </is>
       </c>
     </row>
@@ -13793,7 +13793,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0.0695972060713451</t>
+          <t>0.06999826829154686</t>
         </is>
       </c>
     </row>
@@ -13813,7 +13813,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0.24083029081775675</t>
+          <t>0.23981258523142363</t>
         </is>
       </c>
     </row>
@@ -13833,7 +13833,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0.08506829111100432</t>
+          <t>0.08471368694760026</t>
         </is>
       </c>
     </row>
@@ -13853,7 +13853,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0.24067884724264438</t>
+          <t>0.24045519739304416</t>
         </is>
       </c>
     </row>
@@ -13873,7 +13873,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.07276204576944544</t>
+          <t>0.07324919014958406</t>
         </is>
       </c>
     </row>
@@ -13893,7 +13893,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>0.07636839655896431</t>
+          <t>0.07503234131133732</t>
         </is>
       </c>
     </row>
@@ -13913,7 +13913,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>0.04640970522372252</t>
+          <t>0.04607605283483032</t>
         </is>
       </c>
     </row>
@@ -13933,7 +13933,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0.22324269264078173</t>
+          <t>0.22305438245307851</t>
         </is>
       </c>
     </row>
@@ -13953,7 +13953,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0.2593516720535587</t>
+          <t>0.2587112749700897</t>
         </is>
       </c>
     </row>
@@ -13973,7 +13973,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0.26083793150553775</t>
+          <t>0.26031141745570363</t>
         </is>
       </c>
     </row>
@@ -13993,7 +13993,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0.0843502642452596</t>
+          <t>0.08488534390545315</t>
         </is>
       </c>
     </row>
@@ -14013,7 +14013,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0.16133635556584205</t>
+          <t>0.15979010449880077</t>
         </is>
       </c>
     </row>
@@ -14033,7 +14033,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0.2462342945237322</t>
+          <t>0.24598481123004384</t>
         </is>
       </c>
     </row>
@@ -14053,7 +14053,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0.001501930088876673</t>
+          <t>0.0015020890676465885</t>
         </is>
       </c>
     </row>
@@ -14073,7 +14073,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0.23037932361913613</t>
+          <t>0.23018247572902378</t>
         </is>
       </c>
     </row>
@@ -14093,7 +14093,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>0.19759176503184706</t>
+          <t>0.1973977501533188</t>
         </is>
       </c>
     </row>
@@ -14113,7 +14113,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>0.06353798182919504</t>
+          <t>0.06396403485831822</t>
         </is>
       </c>
     </row>
@@ -14133,7 +14133,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0.08441046792559115</t>
+          <t>0.08494636599558093</t>
         </is>
       </c>
     </row>
@@ -14153,7 +14153,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>0.17318628798604838</t>
+          <t>0.171670739361822</t>
         </is>
       </c>
     </row>
@@ -14173,7 +14173,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0.1777809006894119</t>
+          <t>0.17756172633105538</t>
         </is>
       </c>
     </row>
@@ -14193,7 +14193,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0.25811134445499384</t>
+          <t>0.257424365052759</t>
         </is>
       </c>
     </row>
@@ -14213,7 +14213,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0.19343741153602095</t>
+          <t>0.19323912378731506</t>
         </is>
       </c>
     </row>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>0.08420403602647782</t>
+          <t>0.08473719648666769</t>
         </is>
       </c>
     </row>
@@ -14253,7 +14253,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0.07503525093741015</t>
+          <t>0.0754810070834688</t>
         </is>
       </c>
     </row>
@@ -14273,7 +14273,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>0.08114807357442597</t>
+          <t>0.08168536522116011</t>
         </is>
       </c>
     </row>
@@ -14293,7 +14293,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>0.2116087928455058</t>
+          <t>0.21142332149766205</t>
         </is>
       </c>
     </row>
@@ -14313,7 +14313,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>0.08135966695438099</t>
+          <t>0.0818622440377734</t>
         </is>
       </c>
     </row>
@@ -14333,7 +14333,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0.00027749683521061623</t>
+          <t>0.00027692602651956577</t>
         </is>
       </c>
     </row>
@@ -14353,7 +14353,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>0.06901421312804064</t>
+          <t>0.06947694907250777</t>
         </is>
       </c>
     </row>
@@ -14373,7 +14373,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>0.260807433714747</t>
+          <t>0.260270953819265</t>
         </is>
       </c>
     </row>
@@ -14393,7 +14393,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>0.2608256653016854</t>
+          <t>0.26032171551787203</t>
         </is>
       </c>
     </row>
@@ -14413,7 +14413,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0.1311299248411808</t>
+          <t>0.12956884208408934</t>
         </is>
       </c>
     </row>
@@ -14433,7 +14433,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>0.08428942783525364</t>
+          <t>0.0848398734896724</t>
         </is>
       </c>
     </row>
@@ -14453,7 +14453,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>0.08499125490306743</t>
+          <t>0.08553914307480243</t>
         </is>
       </c>
     </row>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>0.0438371744599095</t>
+          <t>0.044051609630287154</t>
         </is>
       </c>
     </row>
@@ -14493,7 +14493,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>0.23350877663995345</t>
+          <t>0.23240016754314324</t>
         </is>
       </c>
     </row>
@@ -14513,7 +14513,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>0.08475262975798181</t>
+          <t>0.08530319671785473</t>
         </is>
       </c>
     </row>
@@ -14533,7 +14533,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>0.08435633065539856</t>
+          <t>0.08490688701244595</t>
         </is>
       </c>
     </row>
@@ -14553,7 +14553,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>0.06984635611420154</t>
+          <t>0.07031457107928567</t>
         </is>
       </c>
     </row>
@@ -14573,7 +14573,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>0.08499187959147483</t>
+          <t>0.08553962562870718</t>
         </is>
       </c>
     </row>
@@ -14593,7 +14593,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>0.25227713850535516</t>
+          <t>0.25144492882413105</t>
         </is>
       </c>
     </row>
@@ -14613,7 +14613,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>0.23968140481364045</t>
+          <t>0.23946136258057094</t>
         </is>
       </c>
     </row>
@@ -14633,7 +14633,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>0.2516086026634788</t>
+          <t>0.2513204832876991</t>
         </is>
       </c>
     </row>
@@ -14653,7 +14653,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0.08478532137746458</t>
+          <t>0.08533579898195791</t>
         </is>
       </c>
     </row>
@@ -14673,7 +14673,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>0.1948754546778327</t>
+          <t>0.19345365819989777</t>
         </is>
       </c>
     </row>
@@ -14693,7 +14693,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>0.04917707524577468</t>
+          <t>0.04883833116740394</t>
         </is>
       </c>
     </row>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>0.07970154312132491</t>
+          <t>0.08023097216093693</t>
         </is>
       </c>
     </row>
@@ -14733,7 +14733,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>0.26084618576500435</t>
+          <t>0.2603311018312404</t>
         </is>
       </c>
     </row>
@@ -14753,7 +14753,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>0.22818580171376177</t>
+          <t>0.2270194956130669</t>
         </is>
       </c>
     </row>
@@ -14773,7 +14773,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>0.05558228007729496</t>
+          <t>0.055234380044071316</t>
         </is>
       </c>
     </row>
@@ -14793,7 +14793,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>0.14229370485085882</t>
+          <t>0.14072744116775054</t>
         </is>
       </c>
     </row>
@@ -14813,7 +14813,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>0.08335864497877449</t>
+          <t>0.08390627033223831</t>
         </is>
       </c>
     </row>
@@ -14833,7 +14833,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>0.06336638647133329</t>
+          <t>0.06379127566662329</t>
         </is>
       </c>
     </row>
@@ -14853,7 +14853,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>0.06466765274341751</t>
+          <t>0.06510134861661424</t>
         </is>
       </c>
     </row>
@@ -14873,7 +14873,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>0.2568977324284263</t>
+          <t>0.2565439176082058</t>
         </is>
       </c>
     </row>
@@ -14893,7 +14893,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>0.06132593802770867</t>
+          <t>0.0617369347425846</t>
         </is>
       </c>
     </row>
@@ -14913,7 +14913,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>0.24499385042453242</t>
+          <t>0.2440356926586006</t>
         </is>
       </c>
     </row>
@@ -14933,7 +14933,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>0.08498002756547156</t>
+          <t>0.0855286221398075</t>
         </is>
       </c>
     </row>
@@ -14953,7 +14953,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>0.19413685644415546</t>
+          <t>0.19393933307353187</t>
         </is>
       </c>
     </row>
@@ -14973,7 +14973,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>0.15447405098820857</t>
+          <t>0.15291643025061635</t>
         </is>
       </c>
     </row>
@@ -14993,7 +14993,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>0.25928083654094203</t>
+          <t>0.2586373942873884</t>
         </is>
       </c>
     </row>
@@ -15013,7 +15013,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>0.07048303562669467</t>
+          <t>0.0708912053551608</t>
         </is>
       </c>
     </row>
@@ -15033,7 +15033,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>0.06297375858247445</t>
+          <t>0.06339598206833007</t>
         </is>
       </c>
     </row>
@@ -15053,7 +15053,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>0.1988039540573558</t>
+          <t>0.19861105798468973</t>
         </is>
       </c>
     </row>
@@ -15073,7 +15073,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>0.02954322108478982</t>
+          <t>0.029259611549995526</t>
         </is>
       </c>
     </row>
@@ -15093,7 +15093,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>0.10949830209470796</t>
+          <t>0.10798434857780097</t>
         </is>
       </c>
     </row>
@@ -15113,7 +15113,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>0.08353672952265664</t>
+          <t>0.08406189578377024</t>
         </is>
       </c>
     </row>
@@ -15133,7 +15133,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>0.04456001733121896</t>
+          <t>0.04477922700138209</t>
         </is>
       </c>
     </row>
@@ -15153,7 +15153,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>0.2018385368476729</t>
+          <t>0.20045785343856934</t>
         </is>
       </c>
     </row>
@@ -15173,7 +15173,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>0.056056244018192466</t>
+          <t>0.05635485371024079</t>
         </is>
       </c>
     </row>
@@ -15193,7 +15193,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>0.23614031375437333</t>
+          <t>0.23506266012600446</t>
         </is>
       </c>
     </row>
@@ -15213,7 +15213,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>0.0923142297030747</t>
+          <t>0.09196447804521883</t>
         </is>
       </c>
     </row>
@@ -15233,7 +15233,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>0.07970943418713976</t>
+          <t>0.0802389075394752</t>
         </is>
       </c>
     </row>
@@ -15253,7 +15253,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>0.0742556350657323</t>
+          <t>0.07469481204759737</t>
         </is>
       </c>
     </row>
@@ -15273,7 +15273,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>0.09964807855256702</t>
+          <t>0.09817278762704905</t>
         </is>
       </c>
     </row>
@@ -15293,7 +15293,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>0.23911032744805352</t>
+          <t>0.23806985870734007</t>
         </is>
       </c>
     </row>
@@ -15313,7 +15313,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>0.21664189195648892</t>
+          <t>0.21536888510451416</t>
         </is>
       </c>
     </row>
@@ -15333,7 +15333,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>0.08164411533316707</t>
+          <t>0.08214948160424686</t>
         </is>
       </c>
     </row>
@@ -15353,7 +15353,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>0.19955464258617564</t>
+          <t>0.19936240825174492</t>
         </is>
       </c>
     </row>
@@ -15373,7 +15373,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>0.09876090110209212</t>
+          <t>0.09841702634011626</t>
         </is>
       </c>
     </row>
@@ -15393,7 +15393,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>0.02030427575027989</t>
+          <t>0.020067352260991458</t>
         </is>
       </c>
     </row>
@@ -15413,7 +15413,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>0.22522112765497634</t>
+          <t>0.22402519834276594</t>
         </is>
       </c>
     </row>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>0.08395659269145304</t>
+          <t>0.08448667125215974</t>
         </is>
       </c>
     </row>
@@ -15453,7 +15453,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>0.09651913378360612</t>
+          <t>0.09617306260016764</t>
         </is>
       </c>
     </row>
@@ -15473,7 +15473,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>0.16357128451662656</t>
+          <t>0.16332895255781127</t>
         </is>
       </c>
     </row>
@@ -15493,7 +15493,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>0.002136747995384723</t>
+          <t>0.0021379618044998073</t>
         </is>
       </c>
     </row>
@@ -15513,7 +15513,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>0.010614914362449261</t>
+          <t>0.010644048269426547</t>
         </is>
       </c>
     </row>
@@ -15533,7 +15533,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>0.06879499494732416</t>
+          <t>0.06925628260834182</t>
         </is>
       </c>
     </row>
@@ -15553,7 +15553,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>0.19834746798727243</t>
+          <t>0.1981541577776672</t>
         </is>
       </c>
     </row>
@@ -15573,7 +15573,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>0.0644027308126867</t>
+          <t>0.06483463740543212</t>
         </is>
       </c>
     </row>
@@ -15593,7 +15593,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>0.06823746441211263</t>
+          <t>0.06788054341907372</t>
         </is>
       </c>
     </row>
@@ -15613,7 +15613,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>0.08057366821972617</t>
+          <t>0.08110790616300956</t>
         </is>
       </c>
     </row>
@@ -15633,7 +15633,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>0.25190057459539933</t>
+          <t>0.25160977496257175</t>
         </is>
       </c>
     </row>
@@ -15653,7 +15653,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>0.24642824788767376</t>
+          <t>0.24617764996029595</t>
         </is>
       </c>
     </row>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>0.23879687672703973</t>
+          <t>0.23857981816419832</t>
         </is>
       </c>
     </row>
@@ -15693,7 +15693,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>0.08020730543354093</t>
+          <t>0.08069888330217484</t>
         </is>
       </c>
     </row>
@@ -15713,7 +15713,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>0.2525978048032771</t>
+          <t>0.2517720924182933</t>
         </is>
       </c>
     </row>
@@ -15733,7 +15733,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>0.014340883776628411</t>
+          <t>0.014145447499231379</t>
         </is>
       </c>
     </row>
@@ -15753,7 +15753,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>0.07045818296176178</t>
+          <t>0.07093040644807976</t>
         </is>
       </c>
     </row>
@@ -15773,7 +15773,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>0.08433320219097822</t>
+          <t>0.08486805319507529</t>
         </is>
       </c>
     </row>
@@ -15793,7 +15793,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>0.25944675286476165</t>
+          <t>0.2590326114273209</t>
         </is>
       </c>
     </row>
@@ -15813,7 +15813,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>0.0814195941578809</t>
+          <t>0.08195829120799288</t>
         </is>
       </c>
     </row>
@@ -15833,7 +15833,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>0.08191518743310665</t>
+          <t>0.08245637458354192</t>
         </is>
       </c>
     </row>
@@ -15853,7 +15853,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>0.08314743132558325</t>
+          <t>0.08366827916755416</t>
         </is>
       </c>
     </row>
@@ -15873,7 +15873,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>0.07716413321313077</t>
+          <t>0.07767874238000544</t>
         </is>
       </c>
     </row>
@@ -15893,7 +15893,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>0.19318793842047233</t>
+          <t>0.19175702163575584</t>
         </is>
       </c>
     </row>
@@ -15913,7 +15913,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>0.08333670470379556</t>
+          <t>0.08388424551433246</t>
         </is>
       </c>
     </row>
@@ -15933,7 +15933,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>0.004518147667569748</t>
+          <t>0.004525226867432213</t>
         </is>
       </c>
     </row>
@@ -15953,7 +15953,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>0.08187428654369595</t>
+          <t>0.08238193600816024</t>
         </is>
       </c>
     </row>
@@ -15973,7 +15973,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>0.11415735848460493</t>
+          <t>0.112628972769007</t>
         </is>
       </c>
     </row>
@@ -15993,7 +15993,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>0.07121753743852834</t>
+          <t>0.06992237028126863</t>
         </is>
       </c>
     </row>
@@ -16013,7 +16013,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>0.23032611711795628</t>
+          <t>0.2301293578214327</t>
         </is>
       </c>
     </row>
@@ -16033,7 +16033,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>0.07786483409119035</t>
+          <t>0.07838363430618601</t>
         </is>
       </c>
     </row>
@@ -16053,7 +16053,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>0.07027793384224659</t>
+          <t>0.07074897821504364</t>
         </is>
       </c>
     </row>
@@ -16073,7 +16073,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>0.22283479128773967</t>
+          <t>0.22161618959676627</t>
         </is>
       </c>
     </row>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>0.06916659631881032</t>
+          <t>0.0695642247876495</t>
         </is>
       </c>
     </row>
@@ -16113,7 +16113,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>0.2222749066295304</t>
+          <t>0.22208729593069534</t>
         </is>
       </c>
     </row>
@@ -16133,7 +16133,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>0.002447639105940791</t>
+          <t>0.0024494685119260348</t>
         </is>
       </c>
     </row>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>0.08497765540309589</t>
+          <t>0.08552633246104177</t>
         </is>
       </c>
     </row>
@@ -16173,7 +16173,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>0.08083731307961432</t>
+          <t>0.08137296527385202</t>
         </is>
       </c>
     </row>
@@ -16193,7 +16193,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>0.07639489489765618</t>
+          <t>0.07690483424362793</t>
         </is>
       </c>
     </row>
@@ -16213,7 +16213,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>0.1783264454669159</t>
+          <t>0.1768286340001262</t>
         </is>
       </c>
     </row>
@@ -16233,7 +16233,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>0.1744414766334407</t>
+          <t>0.17421712149699603</t>
         </is>
       </c>
     </row>
@@ -16253,7 +16253,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>0.07381876072599647</t>
+          <t>0.07425427915020691</t>
         </is>
       </c>
     </row>
@@ -16273,7 +16273,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>0.08301669894764897</t>
+          <t>0.0835361343621638</t>
         </is>
       </c>
     </row>
@@ -16293,7 +16293,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>0.2536468595839913</t>
+          <t>0.2528432265944154</t>
         </is>
       </c>
     </row>
@@ -16313,7 +16313,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>0.0630927330936894</t>
+          <t>0.06351576474284167</t>
         </is>
       </c>
     </row>
@@ -16333,7 +16333,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>0.24526235746717714</t>
+          <t>0.2450182127617481</t>
         </is>
       </c>
     </row>
@@ -16353,7 +16353,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>0.08272100067260856</t>
+          <t>0.0832659709777192</t>
         </is>
       </c>
     </row>
@@ -16373,7 +16373,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>0.25555337640363646</t>
+          <t>0.25522074823370766</t>
         </is>
       </c>
     </row>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>0.07404896869935036</t>
+          <t>0.07273083575903715</t>
         </is>
       </c>
     </row>
@@ -16413,7 +16413,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>0.1999796668013172</t>
+          <t>0.1997877962776656</t>
         </is>
       </c>
     </row>
@@ -16433,7 +16433,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>0.0661500404925065</t>
+          <t>0.06489907454483972</t>
         </is>
       </c>
     </row>
@@ -16453,7 +16453,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>0.25975281789250587</t>
+          <t>0.2591310684051281</t>
         </is>
       </c>
     </row>
@@ -16473,7 +16473,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>0.08397016279577735</t>
+          <t>0.08451985752902012</t>
         </is>
       </c>
     </row>
@@ -16493,7 +16493,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>0.07228790532341837</t>
+          <t>0.07271075073704203</t>
         </is>
       </c>
     </row>
@@ -16513,7 +16513,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>0.1684915896403087</t>
+          <t>0.1682575715694648</t>
         </is>
       </c>
     </row>
@@ -16533,7 +16533,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>0.2240576371079019</t>
+          <t>0.22386866093493946</t>
         </is>
       </c>
     </row>
@@ -16553,7 +16553,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>0.07557528118343954</t>
+          <t>0.07602563483770182</t>
         </is>
       </c>
     </row>
@@ -16573,7 +16573,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>0.0458461329023905</t>
+          <t>0.04551360873489751</t>
         </is>
       </c>
     </row>
@@ -16593,7 +16593,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>0.2417110514341245</t>
+          <t>0.2407053889692102</t>
         </is>
       </c>
     </row>
@@ -16613,7 +16613,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>0.026879661790623784</t>
+          <t>0.02699003114226481</t>
         </is>
       </c>
     </row>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>0.08499102757725908</t>
+          <t>0.08553895070233011</t>
         </is>
       </c>
     </row>
@@ -16653,7 +16653,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>0.06154499156074395</t>
+          <t>0.061957484162212265</t>
         </is>
       </c>
     </row>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>0.07776882154684309</t>
+          <t>0.07823823982812503</t>
         </is>
       </c>
     </row>
@@ -16693,7 +16693,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>0.2067336043272029</t>
+          <t>0.20538532729530226</t>
         </is>
       </c>
     </row>
@@ -16713,7 +16713,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>0.13198267332906852</t>
+          <t>0.13168529856021147</t>
         </is>
       </c>
     </row>
@@ -16733,7 +16733,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>0.09030130763361384</t>
+          <t>0.0888734507769062</t>
         </is>
       </c>
     </row>
@@ -16753,7 +16753,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>0.20110093872506837</t>
+          <t>0.19971562844835147</t>
         </is>
       </c>
     </row>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>0.06280505731207811</t>
+          <t>0.06315339906769935</t>
         </is>
       </c>
     </row>
@@ -16793,7 +16793,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>0.2579177382908997</t>
+          <t>0.25754418800299356</t>
         </is>
       </c>
     </row>
@@ -16813,7 +16813,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>0.21188171674600031</t>
+          <t>0.21169630024723007</t>
         </is>
       </c>
     </row>
@@ -16833,7 +16833,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>0.10889759390590821</t>
+          <t>0.10738567825375894</t>
         </is>
       </c>
     </row>
@@ -16853,7 +16853,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>0.25830014656701467</t>
+          <t>0.2579180208737357</t>
         </is>
       </c>
     </row>
@@ -16873,7 +16873,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>0.25861884095792365</t>
+          <t>0.25794946405217234</t>
         </is>
       </c>
     </row>
@@ -16893,7 +16893,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>0.030644649513244346</t>
+          <t>0.030776717394943857</t>
         </is>
       </c>
     </row>
@@ -16913,7 +16913,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>0.24881216238784346</t>
+          <t>0.248546345846042</t>
         </is>
       </c>
     </row>
@@ -16933,7 +16933,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>0.05581235471017451</t>
+          <t>0.05610921183115898</t>
         </is>
       </c>
     </row>
@@ -16953,7 +16953,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>0.08488991276552989</t>
+          <t>0.0854398676934502</t>
         </is>
       </c>
     </row>
@@ -16973,7 +16973,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>0.07922702284224707</t>
+          <t>0.07970954100308139</t>
         </is>
       </c>
     </row>
@@ -16993,7 +16993,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>0.07317323947865292</t>
+          <t>0.07366301422601039</t>
         </is>
       </c>
     </row>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>0.04960279205697915</t>
+          <t>0.049856028205127724</t>
         </is>
       </c>
     </row>
@@ -17033,7 +17033,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>0.05543519432120985</t>
+          <t>0.05572934712772844</t>
         </is>
       </c>
     </row>
@@ -17053,7 +17053,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>0.029681616324933796</t>
+          <t>0.029808050660756216</t>
         </is>
       </c>
     </row>
@@ -17073,7 +17073,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>0.07859893755600436</t>
+          <t>0.079075764064328</t>
         </is>
       </c>
     </row>
@@ -17093,7 +17093,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>0.06834222468611882</t>
+          <t>0.06873331683720232</t>
         </is>
       </c>
     </row>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>0.06500892816230154</t>
+          <t>0.06544492612182742</t>
         </is>
       </c>
     </row>
@@ -17133,7 +17133,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>0.08493335288693943</t>
+          <t>0.08547818222816488</t>
         </is>
       </c>
     </row>
@@ -17153,7 +17153,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>0.17337240849641503</t>
+          <t>0.1718574549895783</t>
         </is>
       </c>
     </row>
@@ -17173,7 +17173,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>0.0833865717855844</t>
+          <t>0.0839343039120406</t>
         </is>
       </c>
     </row>
@@ -17193,7 +17193,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>0.06539609650481404</t>
+          <t>0.06576420499510412</t>
         </is>
       </c>
     </row>
@@ -17213,7 +17213,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>0.24295171594459672</t>
+          <t>0.24196349827331048</t>
         </is>
       </c>
     </row>
@@ -17233,7 +17233,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>0.235890015387363</t>
+          <t>0.2348093408591916</t>
         </is>
       </c>
     </row>
@@ -17253,7 +17253,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>0.24751496065508571</t>
+          <t>0.2465965957376775</t>
         </is>
       </c>
     </row>
@@ -17273,7 +17273,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>0.1997058042136207</t>
+          <t>0.19831192126753155</t>
         </is>
       </c>
     </row>
@@ -17293,7 +17293,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>0.1784173699326389</t>
+          <t>0.17819915983983017</t>
         </is>
       </c>
     </row>
@@ -17313,7 +17313,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>0.2472958312499086</t>
+          <t>0.24704003231091165</t>
         </is>
       </c>
     </row>
@@ -17333,7 +17333,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>0.040127752205331685</t>
+          <t>0.040318098975191397</t>
         </is>
       </c>
     </row>
@@ -17353,7 +17353,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>0.12691285194012702</t>
+          <t>0.12660713064642587</t>
         </is>
       </c>
     </row>
@@ -17373,7 +17373,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>0.07689714762528126</t>
+          <t>0.0774101436826365</t>
         </is>
       </c>
     </row>
@@ -17393,7 +17393,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>0.0713518137363969</t>
+          <t>0.07005552997413121</t>
         </is>
       </c>
     </row>
@@ -17413,7 +17413,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>0.15259977912406344</t>
+          <t>0.15233828995807527</t>
         </is>
       </c>
     </row>
@@ -17433,7 +17433,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>0.08086265760872688</t>
+          <t>0.08139844466472465</t>
         </is>
       </c>
     </row>
@@ -17453,7 +17453,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>0.23819736958586316</t>
+          <t>0.23798222453167486</t>
         </is>
       </c>
     </row>
@@ -17473,7 +17473,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>0.12478615039451738</t>
+          <t>0.12323371620219405</t>
         </is>
       </c>
     </row>
@@ -17493,7 +17493,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>0.06478833162627579</t>
+          <t>0.06515176754354816</t>
         </is>
       </c>
     </row>
@@ -17513,7 +17513,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>0.22280179359662938</t>
+          <t>0.22261381416368964</t>
         </is>
       </c>
     </row>
@@ -17533,7 +17533,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>0.07280051432525747</t>
+          <t>0.07322757889567359</t>
         </is>
       </c>
     </row>
@@ -17553,7 +17553,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>0.08107141454596269</t>
+          <t>0.08157119806991232</t>
         </is>
       </c>
     </row>
@@ -17573,7 +17573,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>0.23550415103949476</t>
+          <t>0.234418851896244</t>
         </is>
       </c>
     </row>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>0.18930531690681424</t>
+          <t>0.18910217671822688</t>
         </is>
       </c>
     </row>
@@ -17613,7 +17613,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>0.2351221157686197</t>
+          <t>0.23403227610869798</t>
         </is>
       </c>
     </row>
@@ -17633,7 +17633,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>0.10352790907851976</t>
+          <t>0.10318920184446553</t>
         </is>
       </c>
     </row>
@@ -17653,7 +17653,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>0.07230309104387062</t>
+          <t>0.07099897559813101</t>
         </is>
       </c>
     </row>
@@ -17673,7 +17673,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>0.2423640002056854</t>
+          <t>0.24213361661901533</t>
         </is>
       </c>
     </row>
@@ -17693,7 +17693,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>0.07899016821632528</t>
+          <t>0.07951555060412177</t>
         </is>
       </c>
     </row>
@@ -17713,7 +17713,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>0.0653004555683413</t>
+          <t>0.06573841739616133</t>
         </is>
       </c>
     </row>
@@ -17733,7 +17733,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>0.19923043123721765</t>
+          <t>0.19783368025160192</t>
         </is>
       </c>
     </row>
@@ -17753,7 +17753,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>0.24247108082246274</t>
+          <t>0.2422402402504928</t>
         </is>
       </c>
     </row>
@@ -17773,7 +17773,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>0.25966345742070746</t>
+          <t>0.25924160253634343</t>
         </is>
       </c>
     </row>
@@ -17793,7 +17793,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>0.26020871620409836</t>
+          <t>0.2597628086358543</t>
         </is>
       </c>
     </row>
@@ -17813,7 +17813,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>0.06633068020820004</t>
+          <t>0.0659744450920598</t>
         </is>
       </c>
     </row>
@@ -17833,7 +17833,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>0.2594157212002858</t>
+          <t>0.259002625062836</t>
         </is>
       </c>
     </row>
@@ -17853,7 +17853,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>0.2554463993208386</t>
+          <t>0.25511528092051833</t>
         </is>
       </c>
     </row>
@@ -17873,7 +17873,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>0.2417106124265844</t>
+          <t>0.241482939925128</t>
         </is>
       </c>
     </row>
@@ -17893,7 +17893,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>0.05651974364711215</t>
+          <t>0.05682169235000733</t>
         </is>
       </c>
     </row>
@@ -17913,7 +17913,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>0.21017346179667173</t>
+          <t>0.20884979101375695</t>
         </is>
       </c>
     </row>
@@ -17933,7 +17933,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>0.03471575170242987</t>
+          <t>0.03487223312063536</t>
         </is>
       </c>
     </row>
@@ -17953,7 +17953,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>0.19864006216889044</t>
+          <t>0.19844701841969947</t>
         </is>
       </c>
     </row>
@@ -17973,7 +17973,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>0.20099972509370792</t>
+          <t>0.20080869487252917</t>
         </is>
       </c>
     </row>
@@ -17993,7 +17993,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>0.2375528561975195</t>
+          <t>0.23733967489232338</t>
         </is>
       </c>
     </row>
@@ -18013,7 +18013,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>0.21344953296468291</t>
+          <t>0.21326433234456035</t>
         </is>
       </c>
     </row>
@@ -18033,7 +18033,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>0.010071250298832102</t>
+          <t>0.009913619286095892</t>
         </is>
       </c>
     </row>
@@ -18053,7 +18053,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>0.1158365940446909</t>
+          <t>0.11551390660895648</t>
         </is>
       </c>
     </row>
@@ -18073,7 +18073,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>0.15437324402775893</t>
+          <t>0.15411488471261026</t>
         </is>
       </c>
     </row>
@@ -18093,7 +18093,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>0.23248023684550018</t>
+          <t>0.23227954293494518</t>
         </is>
       </c>
     </row>
@@ -18113,7 +18113,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>0.25846901662139676</t>
+          <t>0.2580828396871868</t>
         </is>
       </c>
     </row>
@@ -18133,7 +18133,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>0.2601456894525416</t>
+          <t>0.25970304697227503</t>
         </is>
       </c>
     </row>
@@ -18153,7 +18153,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>0.14990959791236766</t>
+          <t>0.14964335331623663</t>
         </is>
       </c>
     </row>
@@ -18173,7 +18173,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>0.1269935949461213</t>
+          <t>0.12668800414455517</t>
         </is>
       </c>
     </row>
@@ -18193,7 +18193,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>0.10911150343846578</t>
+          <t>0.1087796265136721</t>
         </is>
       </c>
     </row>
@@ -18213,7 +18213,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>0.11150037867432874</t>
+          <t>0.11117165407551223</t>
         </is>
       </c>
     </row>
@@ -18233,7 +18233,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>0.08485941041835438</t>
+          <t>0.08540250495383737</t>
         </is>
       </c>
     </row>
@@ -18253,7 +18253,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>0.06868839391880349</t>
+          <t>0.06914897660085607</t>
         </is>
       </c>
     </row>
@@ -18273,7 +18273,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>0.14021423457327778</t>
+          <t>0.13993093964680356</t>
         </is>
       </c>
     </row>
@@ -18293,7 +18293,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>0.24934781377408033</t>
+          <t>0.24846062829680501</t>
         </is>
       </c>
     </row>
@@ -18313,7 +18313,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>0.08337802137799213</t>
+          <t>0.08390140467073201</t>
         </is>
       </c>
     </row>
@@ -18333,7 +18333,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>0.21919355557383202</t>
+          <t>0.21794222485114054</t>
         </is>
       </c>
     </row>
@@ -18353,7 +18353,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>0.021003798030026655</t>
+          <t>0.02108219587796277</t>
         </is>
       </c>
     </row>
@@ -18373,7 +18373,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>0.22153301390918959</t>
+          <t>0.22134587461925273</t>
         </is>
       </c>
     </row>
@@ -18393,7 +18393,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>0.24752733983362926</t>
+          <t>0.2466091786243228</t>
         </is>
       </c>
     </row>
@@ -18413,7 +18413,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>0.2602428647208039</t>
+          <t>0.259795112625283</t>
         </is>
       </c>
     </row>
@@ -18433,7 +18433,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>0.08793741258279222</t>
+          <t>0.0875844900129065</t>
         </is>
       </c>
     </row>
@@ -18453,7 +18453,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>0.0839671618786445</t>
+          <t>0.08449736867149772</t>
         </is>
       </c>
     </row>
@@ -18473,7 +18473,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>0.08347341963151891</t>
+          <t>0.08399787057664806</t>
         </is>
       </c>
     </row>
@@ -18493,7 +18493,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>0.08188707890078253</t>
+          <t>0.08242812770359186</t>
         </is>
       </c>
     </row>
@@ -18513,7 +18513,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>0.13516487129125873</t>
+          <t>0.13360045244138932</t>
         </is>
       </c>
     </row>
@@ -18533,7 +18533,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>0.25368363507959635</t>
+          <t>0.2533746037665087</t>
         </is>
       </c>
     </row>
@@ -18553,7 +18553,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>0.09984285207119369</t>
+          <t>0.09950009239915407</t>
         </is>
       </c>
     </row>
@@ -18573,7 +18573,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>0.16797155581206102</t>
+          <t>0.1677366710748169</t>
         </is>
       </c>
     </row>
@@ -18593,7 +18593,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>0.08379316826309417</t>
+          <t>0.08432129566874576</t>
         </is>
       </c>
     </row>
@@ -18613,7 +18613,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>0.2472926003876736</t>
+          <t>0.24637059121783533</t>
         </is>
       </c>
     </row>
@@ -18633,7 +18633,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>0.08381453919923487</t>
+          <t>0.08434291860126315</t>
         </is>
       </c>
     </row>
@@ -18653,7 +18653,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>0.2192011857620358</t>
+          <t>0.21901518197905065</t>
         </is>
       </c>
     </row>
@@ -18673,7 +18673,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>0.022891783161466537</t>
+          <t>0.022980182667320003</t>
         </is>
       </c>
     </row>
@@ -18693,7 +18693,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>0.06619257731818474</t>
+          <t>0.06663653309035936</t>
         </is>
       </c>
     </row>
@@ -18713,7 +18713,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>0.24526925013772083</t>
+          <t>0.24502506896886972</t>
         </is>
       </c>
     </row>
@@ -18733,7 +18733,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>0.2578853665667479</t>
+          <t>0.2571910197123595</t>
         </is>
       </c>
     </row>
@@ -18753,7 +18753,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>0.06255402358622472</t>
+          <t>0.06290047108717906</t>
         </is>
       </c>
     </row>
@@ -18773,7 +18773,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>0.21751301142373686</t>
+          <t>0.21624729224915507</t>
         </is>
       </c>
     </row>
@@ -18793,7 +18793,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>0.20878868197499556</t>
+          <t>0.20860236064483292</t>
         </is>
       </c>
     </row>
@@ -18813,7 +18813,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>0.1800835049008311</t>
+          <t>0.1798677808800137</t>
         </is>
       </c>
     </row>
@@ -18833,7 +18833,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>0.18383220220030858</t>
+          <t>0.1823564230341869</t>
         </is>
       </c>
     </row>
@@ -18853,7 +18853,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>0.20940623552044282</t>
+          <t>0.20922014317323653</t>
         </is>
       </c>
     </row>
@@ -18873,7 +18873,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>0.1344790104037491</t>
+          <t>0.13291504100695514</t>
         </is>
       </c>
     </row>
@@ -18893,7 +18893,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>0.11364650821872992</t>
+          <t>0.11332072295951648</t>
         </is>
       </c>
     </row>
@@ -18913,7 +18913,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>0.047659004815097744</t>
+          <t>0.04789897694364299</t>
         </is>
       </c>
     </row>
@@ -18933,7 +18933,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>0.0019125321197616765</t>
+          <t>0.0019133396432986667</t>
         </is>
       </c>
     </row>
@@ -18953,7 +18953,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>0.079447821497392</t>
+          <t>0.07997581874837856</t>
         </is>
       </c>
     </row>
@@ -18973,7 +18973,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>0.13409335379671772</t>
+          <t>0.13379953555623014</t>
         </is>
       </c>
     </row>
@@ -18993,7 +18993,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>0.17024713494752317</t>
+          <t>0.16872265428194472</t>
         </is>
       </c>
     </row>
@@ -19013,7 +19013,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>0.07109278059790253</t>
+          <t>0.0715691426403586</t>
         </is>
       </c>
     </row>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>0.2574864374424267</t>
+          <t>0.25712172031365965</t>
         </is>
       </c>
     </row>
@@ -19053,7 +19053,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>0.13280600626935754</t>
+          <t>0.13251001369461163</t>
         </is>
       </c>
     </row>
@@ -19073,7 +19073,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>0.11228423794423804</t>
+          <t>0.1119565754875618</t>
         </is>
       </c>
     </row>
@@ -19093,7 +19093,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>0.113561295825925</t>
+          <t>0.11323539200233966</t>
         </is>
       </c>
     </row>
@@ -19113,7 +19113,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>0.23376494840578613</t>
+          <t>0.23265927687817345</t>
         </is>
       </c>
     </row>
@@ -19133,7 +19133,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>0.2489436406176278</t>
+          <t>0.24804939429717457</t>
         </is>
       </c>
     </row>
@@ -19153,7 +19153,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>0.06872217475340578</t>
+          <t>0.06918298088629095</t>
         </is>
       </c>
     </row>
@@ -19173,7 +19173,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>0.2510228588247945</t>
+          <t>0.25073989400705937</t>
         </is>
       </c>
     </row>
@@ -19193,7 +19193,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>0.08144668676769733</t>
+          <t>0.08195011354287078</t>
         </is>
       </c>
     </row>
@@ -19213,7 +19213,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>0.051623343706508805</t>
+          <t>0.051890564369747025</t>
         </is>
       </c>
     </row>
@@ -19233,7 +19233,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>0.2608342313779226</t>
+          <t>0.2603272016269418</t>
         </is>
       </c>
     </row>
@@ -19253,7 +19253,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>0.07561283456606353</t>
+          <t>0.07606350921397721</t>
         </is>
       </c>
     </row>
@@ -19273,7 +19273,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>0.02320179336658223</t>
+          <t>0.023291860691338793</t>
         </is>
       </c>
     </row>
@@ -19293,7 +19293,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>0.08113289696504677</t>
+          <t>0.08163327372741373</t>
         </is>
       </c>
     </row>
@@ -19313,7 +19313,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>0.20763423919196866</t>
+          <t>0.2062922547539833</t>
         </is>
       </c>
     </row>
@@ -19333,7 +19333,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>0.04951464822435318</t>
+          <t>0.04976727888264342</t>
         </is>
       </c>
     </row>
@@ -19353,7 +19353,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>0.07791187014177105</t>
+          <t>0.07838255649818922</t>
         </is>
       </c>
     </row>
@@ -19373,7 +19373,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>0.2525534898323835</t>
+          <t>0.2517268729604998</t>
         </is>
       </c>
     </row>
@@ -19393,7 +19393,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>0.08038077761302422</t>
+          <t>0.08091396840439355</t>
         </is>
       </c>
     </row>
@@ -19413,7 +19413,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>0.07365881529566097</t>
+          <t>0.0741516817271555</t>
         </is>
       </c>
     </row>
@@ -19433,7 +19433,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>0.25482335525542005</t>
+          <t>0.2545006086306231</t>
         </is>
       </c>
     </row>
@@ -19453,7 +19453,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>0.24049704636193694</t>
+          <t>0.239474854277458</t>
         </is>
       </c>
     </row>
@@ -19473,7 +19473,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>0.08243492770025444</t>
+          <t>0.08297859951575795</t>
         </is>
       </c>
     </row>
@@ -19493,7 +19493,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>0.09458895421353018</t>
+          <t>0.0931379944337417</t>
         </is>
       </c>
     </row>
@@ -19513,7 +19513,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>0.2184985152297934</t>
+          <t>0.2183127558385678</t>
         </is>
       </c>
     </row>
@@ -19533,7 +19533,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>0.25967548890102615</t>
+          <t>0.2592531823298671</t>
         </is>
       </c>
     </row>
@@ -19553,7 +19553,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>0.14531768899514053</t>
+          <t>0.14375218921508912</t>
         </is>
       </c>
     </row>
@@ -19573,7 +19573,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>0.2542252157651323</t>
+          <t>0.2534343634049333</t>
         </is>
       </c>
     </row>
@@ -19593,7 +19593,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>0.06820325111035838</t>
+          <t>0.06693388615780317</t>
         </is>
       </c>
     </row>
@@ -19613,7 +19613,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>0.2568865320711335</t>
+          <t>0.25653291351268614</t>
         </is>
       </c>
     </row>
@@ -19633,7 +19633,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>0.2270137739450314</t>
+          <t>0.22682174844778513</t>
         </is>
       </c>
     </row>
@@ -19653,7 +19653,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>0.24984911268642515</t>
+          <t>0.2489708436157869</t>
         </is>
       </c>
     </row>
@@ -19673,7 +19673,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>0.06513713714115492</t>
+          <t>0.06550325195451016</t>
         </is>
       </c>
     </row>
@@ -19693,7 +19693,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>0.17970708594713813</t>
+          <t>0.1794908052291698</t>
         </is>
       </c>
     </row>
@@ -19713,7 +19713,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>0.10789416394802265</t>
+          <t>0.1075607316499642</t>
         </is>
       </c>
     </row>
@@ -19733,7 +19733,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>0.08291750044640547</t>
+          <t>0.08343587486310619</t>
         </is>
       </c>
     </row>
@@ -19753,7 +19753,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>0.014695890772386621</t>
+          <t>0.014743045933072905</t>
         </is>
       </c>
     </row>
@@ -19773,7 +19773,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>0.18664101299456415</t>
+          <t>0.18517770587605675</t>
         </is>
       </c>
     </row>
@@ -19793,7 +19793,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>0.252897668133031</t>
+          <t>0.2520781335261409</t>
         </is>
       </c>
     </row>
@@ -19813,7 +19813,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>0.0665509648023102</t>
+          <t>0.06699732146238087</t>
         </is>
       </c>
     </row>
@@ -19833,7 +19833,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>0.23327747432734075</t>
+          <t>0.23216622635136855</t>
         </is>
       </c>
     </row>
@@ -19853,7 +19853,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>0.07959771915609168</t>
+          <t>0.07924086321413747</t>
         </is>
       </c>
     </row>
@@ -19873,7 +19873,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>0.24828932721870112</t>
+          <t>0.24802710753252258</t>
         </is>
       </c>
     </row>
@@ -19893,7 +19893,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>0.030269798845640197</t>
+          <t>0.03039966729369283</t>
         </is>
       </c>
     </row>
@@ -19913,7 +19913,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>0.17013310617538488</t>
+          <t>0.16990180236369934</t>
         </is>
       </c>
     </row>
@@ -19933,7 +19933,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>0.2587364474477691</t>
+          <t>0.2580713963044426</t>
         </is>
       </c>
     </row>
@@ -19953,7 +19953,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>0.23428305119844411</t>
+          <t>0.2331833695619816</t>
         </is>
       </c>
     </row>
@@ -19973,7 +19973,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>0.20114051328743981</t>
+          <t>0.20094959533511167</t>
         </is>
       </c>
     </row>
@@ -19993,7 +19993,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>0.25014771911587036</t>
+          <t>0.2498719490650681</t>
         </is>
       </c>
     </row>
@@ -20013,7 +20013,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>0.06595999031053656</t>
+          <t>0.06640238575151017</t>
         </is>
       </c>
     </row>
@@ -20033,7 +20033,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>0.25858376096392893</t>
+          <t>0.257913113541025</t>
         </is>
       </c>
     </row>
@@ -20053,7 +20053,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>0.08204130765174239</t>
+          <t>0.08255063005150678</t>
         </is>
       </c>
     </row>
@@ -20073,7 +20073,7 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>0.25917807184973213</t>
+          <t>0.25853031976311597</t>
         </is>
       </c>
     </row>
@@ -20093,7 +20093,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>0.19476842450687962</t>
+          <t>0.1945715762102821</t>
         </is>
       </c>
     </row>
@@ -20113,7 +20113,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>0.2587561095795124</t>
+          <t>0.25836260579631837</t>
         </is>
       </c>
     </row>
@@ -20133,7 +20133,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>0.04566929247854386</t>
+          <t>0.04533712890053837</t>
         </is>
       </c>
     </row>
@@ -20153,7 +20153,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>0.06681489473670678</t>
+          <t>0.06726301680444659</t>
         </is>
       </c>
     </row>
@@ -20173,7 +20173,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>0.08090210573861585</t>
+          <t>0.07953325874235641</t>
         </is>
       </c>
     </row>
@@ -20193,7 +20193,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>0.23744378137268393</t>
+          <t>0.23638213546172665</t>
         </is>
       </c>
     </row>
@@ -20213,7 +20213,7 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>0.21404916669156768</t>
+          <t>0.2138640025851617</t>
         </is>
       </c>
     </row>
@@ -20233,7 +20233,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>0.08349776873324284</t>
+          <t>0.08402249412543263</t>
         </is>
       </c>
     </row>
@@ -20253,7 +20253,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>0.22875412681917037</t>
+          <t>0.22855980081528407</t>
         </is>
       </c>
     </row>
@@ -20273,7 +20273,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>0.21922865016586887</t>
+          <t>0.21904263593964407</t>
         </is>
       </c>
     </row>
@@ -20293,7 +20293,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>0.2607847412647843</t>
+          <t>0.2602433657221425</t>
         </is>
       </c>
     </row>
@@ -20313,7 +20313,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>0.08387101631755216</t>
+          <t>0.08442042125084956</t>
         </is>
       </c>
     </row>
@@ -20333,7 +20333,7 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>0.1404171629783468</t>
+          <t>0.1388508869520228</t>
         </is>
       </c>
     </row>
@@ -20353,7 +20353,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>0.06333845959422886</t>
+          <t>0.06376315930780524</t>
         </is>
       </c>
     </row>
@@ -20373,7 +20373,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>0.25822457244117675</t>
+          <t>0.2575413855718255</t>
         </is>
       </c>
     </row>
@@ -20393,7 +20393,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>0.06060597974147831</t>
+          <t>0.06025318389110487</t>
         </is>
       </c>
     </row>
@@ -20413,7 +20413,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>0.2607367732436038</t>
+          <t>0.2602498704970585</t>
         </is>
       </c>
     </row>
@@ -20433,7 +20433,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>0.24286397793850645</t>
+          <t>0.24263142906682542</t>
         </is>
       </c>
     </row>
@@ -20453,7 +20453,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>0.0903113465280321</t>
+          <t>0.08996005642689375</t>
         </is>
       </c>
     </row>
@@ -20473,7 +20473,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>0.19080269231246605</t>
+          <t>0.19060137444464814</t>
         </is>
       </c>
     </row>
@@ -20493,7 +20493,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>0.07373315557911428</t>
+          <t>0.07416795938831863</t>
         </is>
       </c>
     </row>
@@ -20513,7 +20513,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>0.11298115639713406</t>
+          <t>0.11145618620037101</t>
         </is>
       </c>
     </row>
@@ -20533,7 +20533,7 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>0.05217852900550175</t>
+          <t>0.052449627379607094</t>
         </is>
       </c>
     </row>
@@ -20553,7 +20553,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>0.0751133139449346</t>
+          <t>0.0755597325771799</t>
         </is>
       </c>
     </row>
@@ -20573,7 +20573,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>0.1909277121066952</t>
+          <t>0.18948508010974394</t>
         </is>
       </c>
     </row>
@@ -20593,7 +20593,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>0.07239324045985586</t>
+          <t>0.07287801654479206</t>
         </is>
       </c>
     </row>
@@ -20613,7 +20613,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>0.2448036560398143</t>
+          <t>0.24384262247925678</t>
         </is>
       </c>
     </row>
@@ -20633,7 +20633,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>0.2402437617710147</t>
+          <t>0.23921818469955297</t>
         </is>
       </c>
     </row>
@@ -20653,7 +20653,7 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>0.2555055917213236</t>
+          <t>0.25474491560735335</t>
         </is>
       </c>
     </row>
@@ -20673,7 +20673,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>0.2608458940919674</t>
+          <t>0.26033128570043224</t>
         </is>
       </c>
     </row>
@@ -20693,7 +20693,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>0.25789264219465363</t>
+          <t>0.2571985285949368</t>
         </is>
       </c>
     </row>
@@ -20713,7 +20713,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>0.08191331757345419</t>
+          <t>0.08245449553219926</t>
         </is>
       </c>
     </row>
@@ -20733,7 +20733,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>0.250586825910501</t>
+          <t>0.25030751793747985</t>
         </is>
       </c>
     </row>
@@ -20753,7 +20753,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>0.20553726458310975</t>
+          <t>0.20534936917945182</t>
         </is>
       </c>
     </row>
@@ -20773,7 +20773,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>0.08406142750235339</t>
+          <t>0.08461136815611076</t>
         </is>
       </c>
     </row>
@@ -20793,7 +20793,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>0.13633597159259894</t>
+          <t>0.1347708961555729</t>
         </is>
       </c>
     </row>
@@ -20813,7 +20813,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>0.08042985550161276</t>
+          <t>0.08092352482437531</t>
         </is>
       </c>
     </row>
@@ -20833,7 +20833,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>0.10954194591564712</t>
+          <t>0.10802784592871886</t>
         </is>
       </c>
     </row>
@@ -20853,7 +20853,7 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>0.15252930599150782</t>
+          <t>0.15096931401726968</t>
         </is>
       </c>
     </row>
@@ -20873,7 +20873,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>0.066236360117985</t>
+          <t>0.06661096637923627</t>
         </is>
       </c>
     </row>
@@ -20893,7 +20893,7 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>0.2558760791987358</t>
+          <t>0.2555387554880119</t>
         </is>
       </c>
     </row>
@@ -20913,7 +20913,7 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>0.07599304602201414</t>
+          <t>0.07644698036221137</t>
         </is>
       </c>
     </row>
@@ -20933,7 +20933,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>0.2604598923554137</t>
+          <t>0.2598816805878103</t>
         </is>
       </c>
     </row>
@@ -20953,7 +20953,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>0.06536642815451611</t>
+          <t>0.06580483406066819</t>
         </is>
       </c>
     </row>
@@ -20973,7 +20973,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>0.2582989854175336</t>
+          <t>0.25791688697872206</t>
         </is>
       </c>
     </row>
@@ -20993,7 +20993,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>0.1848919055034623</t>
+          <t>0.18342073292702746</t>
         </is>
       </c>
     </row>
@@ -21013,7 +21013,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>0.19917387473318615</t>
+          <t>0.19777678430976156</t>
         </is>
       </c>
     </row>
@@ -21033,7 +21033,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>0.25214181215078035</t>
+          <t>0.2513068929397155</t>
         </is>
       </c>
     </row>
@@ -21053,7 +21053,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>0.26079452984326756</t>
+          <t>0.260298242286482</t>
         </is>
       </c>
     </row>
@@ -21073,7 +21073,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>0.11317769680291001</t>
+          <t>0.11285126111205591</t>
         </is>
       </c>
     </row>
@@ -21093,7 +21093,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>0.08486715209256343</t>
+          <t>0.08541726385479151</t>
         </is>
       </c>
     </row>
@@ -21113,7 +21113,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>0.0006578684240014435</t>
+          <t>0.0006572363748040637</t>
         </is>
       </c>
     </row>
@@ -21133,7 +21133,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>0.22585942578196366</t>
+          <t>0.22466973431080348</t>
         </is>
       </c>
     </row>
@@ -21153,7 +21153,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>0.19494940220877072</t>
+          <t>0.1947527446628365</t>
         </is>
       </c>
     </row>
@@ -21173,7 +21173,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>0.2561516750884265</t>
+          <t>0.2558101614080028</t>
         </is>
       </c>
     </row>
@@ -21193,7 +21193,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>0.13535856450848963</t>
+          <t>0.1337940274199862</t>
         </is>
       </c>
     </row>
@@ -21213,7 +21213,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>0.12683778245569824</t>
+          <t>0.12528209203470123</t>
         </is>
       </c>
     </row>
@@ -21233,7 +21233,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>0.06434472686336044</t>
+          <t>0.06398944350611314</t>
         </is>
       </c>
     </row>
@@ -21253,7 +21253,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>0.0716168744114807</t>
+          <t>0.07203423178831674</t>
         </is>
       </c>
     </row>
@@ -21273,7 +21273,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>0.06766292006647272</t>
+          <t>0.06811669831673604</t>
         </is>
       </c>
     </row>
@@ -21293,7 +21293,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>0.2073123470960524</t>
+          <t>0.2071253858965639</t>
         </is>
       </c>
     </row>
@@ -21313,7 +21313,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>0.2510298742239727</t>
+          <t>0.2501733638013393</t>
         </is>
       </c>
     </row>
@@ -21333,7 +21333,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>0.15661958498410322</t>
+          <t>0.15506501621327146</t>
         </is>
       </c>
     </row>
@@ -21353,7 +21353,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>0.21254445757258839</t>
+          <t>0.21235915318728743</t>
         </is>
       </c>
     </row>
@@ -21373,7 +21373,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>0.26079215500711816</t>
+          <t>0.2602522648256055</t>
         </is>
       </c>
     </row>
@@ -21393,7 +21393,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>0.23802349220914232</t>
+          <t>0.23696911951711222</t>
         </is>
       </c>
     </row>
@@ -21413,7 +21413,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>0.13284483221739496</t>
+          <t>0.13128212755020846</t>
         </is>
       </c>
     </row>
@@ -21433,7 +21433,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>0.2553635269090978</t>
+          <t>0.2550335628147112</t>
         </is>
       </c>
     </row>
@@ -21453,7 +21453,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>0.26060164370241995</t>
+          <t>0.260036125753495</t>
         </is>
       </c>
     </row>
@@ -21473,7 +21473,7 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>0.07539744230928745</t>
+          <t>0.07584627815869431</t>
         </is>
       </c>
     </row>
@@ -21493,7 +21493,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>0.2427728357211322</t>
+          <t>0.24254068759721123</t>
         </is>
       </c>
     </row>
@@ -21513,7 +21513,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>0.2600707115310089</t>
+          <t>0.2594661068099268</t>
         </is>
       </c>
     </row>
@@ -21533,7 +21533,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>0.0754150007304163</t>
+          <t>0.07408621675261758</t>
         </is>
       </c>
     </row>
@@ -21553,7 +21553,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>0.16832889467536416</t>
+          <t>0.16679905511761187</t>
         </is>
       </c>
     </row>
@@ -21573,7 +21573,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>0.07866103258949844</t>
+          <t>0.07918451089675436</t>
         </is>
       </c>
     </row>
@@ -21593,7 +21593,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>0.07031880348994987</t>
+          <t>0.07079011535088553</t>
         </is>
       </c>
     </row>
@@ -21613,7 +21613,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>0.21951672528689317</t>
+          <t>0.2182682121564074</t>
         </is>
       </c>
     </row>
@@ -21633,7 +21633,7 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>0.05918165573315668</t>
+          <t>0.05950299501380887</t>
         </is>
       </c>
     </row>
@@ -21653,7 +21653,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>0.21533836285219143</t>
+          <t>0.21405466313350752</t>
         </is>
       </c>
     </row>
@@ -21673,7 +21673,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>0.07167261661601311</t>
+          <t>0.07037367632199325</t>
         </is>
       </c>
     </row>
@@ -21693,7 +21693,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>0.21884280776360657</t>
+          <t>0.21865693408012027</t>
         </is>
       </c>
     </row>
@@ -21713,7 +21713,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>0.08906126186307092</t>
+          <t>0.08764052252367512</t>
         </is>
       </c>
     </row>
@@ -21733,7 +21733,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>0.08273399609565336</t>
+          <t>0.08325042998571058</t>
         </is>
       </c>
     </row>
@@ -21753,7 +21753,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>0.11688129305929679</t>
+          <t>0.11656011648912812</t>
         </is>
       </c>
     </row>
@@ -21773,7 +21773,7 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>0.24617743202985243</t>
+          <t>0.24592827231582493</t>
         </is>
       </c>
     </row>
@@ -21793,7 +21793,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>0.06701230559763352</t>
+          <t>0.06575353017205628</t>
         </is>
       </c>
     </row>
@@ -21813,7 +21813,7 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>0.06939299820051305</t>
+          <t>0.0681132793942826</t>
         </is>
       </c>
     </row>
@@ -21833,7 +21833,7 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>0.25887532009513914</t>
+          <t>0.25847858935702844</t>
         </is>
       </c>
     </row>
@@ -21853,7 +21853,7 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>0.08096068094572954</t>
+          <t>0.08145939941832847</t>
         </is>
       </c>
     </row>
@@ -21873,7 +21873,7 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>0.04672300381149165</t>
+          <t>0.046956655049842165</t>
         </is>
       </c>
     </row>
@@ -21893,7 +21893,7 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>0.07335807588685928</t>
+          <t>0.0738490293944302</t>
         </is>
       </c>
     </row>
@@ -21913,7 +21913,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>0.08499107005884086</t>
+          <t>0.08553837881818366</t>
         </is>
       </c>
     </row>
@@ -21933,7 +21933,7 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>0.10538368724880227</t>
+          <t>0.10388451552826564</t>
         </is>
       </c>
     </row>
@@ -21953,7 +21953,7 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>0.05355316475474684</t>
+          <t>0.05383392992861623</t>
         </is>
       </c>
     </row>
@@ -21973,7 +21973,7 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>0.07871268069441018</t>
+          <t>0.07923645901713194</t>
         </is>
       </c>
     </row>
@@ -21993,7 +21993,7 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>0.07154630972798784</t>
+          <t>0.07202561677028635</t>
         </is>
       </c>
     </row>
@@ -22013,7 +22013,7 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>0.08393283333315783</t>
+          <t>0.08254366643206282</t>
         </is>
       </c>
     </row>
@@ -22033,7 +22033,7 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>0.17059362663040487</t>
+          <t>0.16907015349562615</t>
         </is>
       </c>
     </row>
@@ -22053,7 +22053,7 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>0.06451781520317333</t>
+          <t>0.06495049931194904</t>
         </is>
       </c>
     </row>
@@ -22073,7 +22073,7 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>0.07976485052162899</t>
+          <t>0.08025231016350383</t>
         </is>
       </c>
     </row>
@@ -22093,7 +22093,7 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>0.25032819248412125</t>
+          <t>0.250050985345</t>
         </is>
       </c>
     </row>
@@ -22113,7 +22113,7 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>0.23536481613414797</t>
+          <t>0.2342778566153842</t>
         </is>
       </c>
     </row>
@@ -22133,7 +22133,7 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>0.08348098935970347</t>
+          <t>0.08402907520725694</t>
         </is>
       </c>
     </row>
@@ -22153,7 +22153,7 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>0.07451560333427502</t>
+          <t>0.0731938009905063</t>
         </is>
       </c>
     </row>
@@ -22173,7 +22173,7 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>0.06733602546732598</t>
+          <t>0.06607434913749796</t>
         </is>
       </c>
     </row>
@@ -22193,7 +22193,7 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>0.24408656208048454</t>
+          <t>0.24311483055043212</t>
         </is>
       </c>
     </row>
@@ -22213,7 +22213,7 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>0.07851131305199928</t>
+          <t>0.07898735171216727</t>
         </is>
       </c>
     </row>
@@ -22233,7 +22233,7 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>0.07305097275330795</t>
+          <t>0.07348010753535701</t>
         </is>
       </c>
     </row>
@@ -22253,7 +22253,7 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>0.06883722209092122</t>
+          <t>0.06929878888272109</t>
         </is>
       </c>
     </row>
@@ -22273,7 +22273,7 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>0.0971541274089386</t>
+          <t>0.09569044103784673</t>
         </is>
       </c>
     </row>
@@ -22293,7 +22293,7 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>0.22032788225209848</t>
+          <t>0.219086514730595</t>
         </is>
       </c>
     </row>
@@ -22313,7 +22313,7 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>0.010357315889709827</t>
+          <t>0.010385384065438926</t>
         </is>
       </c>
     </row>
@@ -22333,7 +22333,7 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>0.12977326424671798</t>
+          <t>0.12947221550351284</t>
         </is>
       </c>
     </row>
@@ -22353,7 +22353,7 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>0.10364216055789162</t>
+          <t>0.10214983184041031</t>
         </is>
       </c>
     </row>
@@ -22373,7 +22373,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>0.12851557911201042</t>
+          <t>0.12821246359143768</t>
         </is>
       </c>
     </row>
@@ -22393,7 +22393,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>0.08799319001707549</t>
+          <t>0.08764030335127594</t>
         </is>
       </c>
     </row>
@@ -22413,7 +22413,7 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>0.10487576360442767</t>
+          <t>0.10337855131313438</t>
         </is>
       </c>
     </row>
@@ -22433,7 +22433,7 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>0.24371319264689084</t>
+          <t>0.2434767756178969</t>
         </is>
       </c>
     </row>
@@ -22453,7 +22453,7 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>0.07452104472860455</t>
+          <t>0.07501935921987249</t>
         </is>
       </c>
     </row>
@@ -22473,7 +22473,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>0.2509512243497382</t>
+          <t>0.25009322922533467</t>
         </is>
       </c>
     </row>
@@ -22493,7 +22493,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>0.21389511943797496</t>
+          <t>0.2125998711788581</t>
         </is>
       </c>
     </row>
@@ -22513,7 +22513,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>0.23655896532878828</t>
+          <t>0.23548640211497832</t>
         </is>
       </c>
     </row>
@@ -22533,7 +22533,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>0.25415749300097235</t>
+          <t>0.2533651193980547</t>
         </is>
       </c>
     </row>
@@ -22553,7 +22553,7 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>0.06433999012517075</t>
+          <t>0.0646999935034603</t>
         </is>
       </c>
     </row>
@@ -22573,7 +22573,7 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>0.2601362842693686</t>
+          <t>0.259694114728664</t>
         </is>
       </c>
     </row>
@@ -22593,7 +22593,7 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>0.03913251124111284</t>
+          <t>0.0393165144535493</t>
         </is>
       </c>
     </row>
@@ -22613,7 +22613,7 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>0.08017501025819568</t>
+          <t>0.08070707320234118</t>
         </is>
       </c>
     </row>
@@ -22633,7 +22633,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>0.06994459685720188</t>
+          <t>0.07041345664116003</t>
         </is>
       </c>
     </row>
@@ -22653,7 +22653,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>0.029959016957914534</t>
+          <t>0.029673694266596766</t>
         </is>
       </c>
     </row>
@@ -22673,7 +22673,7 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>0.23853031811412</t>
+          <t>0.23831412091910578</t>
         </is>
       </c>
     </row>
@@ -22693,7 +22693,7 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>0.23784971348893638</t>
+          <t>0.2367931502969037</t>
         </is>
       </c>
     </row>
@@ -22713,7 +22713,7 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>0.07217027601965455</t>
+          <t>0.07265361633278178</t>
         </is>
       </c>
     </row>
@@ -22733,7 +22733,7 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>0.10211488254474875</t>
+          <t>0.10062884632510549</t>
         </is>
       </c>
     </row>
@@ -22753,7 +22753,7 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>0.2013905404343212</t>
+          <t>0.20000703895196692</t>
         </is>
       </c>
     </row>
@@ -22773,7 +22773,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>0.15705953699667696</t>
+          <t>0.15550565054256707</t>
         </is>
       </c>
     </row>
@@ -22793,7 +22793,7 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>0.208896269482402</t>
+          <t>0.2075632805014614</t>
         </is>
       </c>
     </row>
@@ -22813,7 +22813,7 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>0.13121869911238887</t>
+          <t>0.13092004799615964</t>
         </is>
       </c>
     </row>
@@ -22833,7 +22833,7 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>0.1973159007667785</t>
+          <t>0.197121622830662</t>
         </is>
       </c>
     </row>
@@ -22853,7 +22853,7 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>0.07239107992927424</t>
+          <t>0.0720333939411246</t>
         </is>
       </c>
     </row>
@@ -22873,7 +22873,7 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>0.22222438010295933</t>
+          <t>0.22203680326854078</t>
         </is>
       </c>
     </row>
@@ -22893,7 +22893,7 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>0.07542052366730845</t>
+          <t>0.0750628700571944</t>
         </is>
       </c>
     </row>
@@ -22913,7 +22913,7 @@
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>0.24579189524912523</t>
+          <t>0.24484598770415866</t>
         </is>
       </c>
     </row>
@@ -22933,7 +22933,7 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>0.2597113751798413</t>
+          <t>0.2592877050832304</t>
         </is>
       </c>
     </row>
@@ -22953,7 +22953,7 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>0.13663983353125808</t>
+          <t>0.1363503593913401</t>
         </is>
       </c>
     </row>
@@ -22973,7 +22973,7 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>0.23625863738782338</t>
+          <t>0.2351824176635992</t>
         </is>
       </c>
     </row>
@@ -22993,7 +22993,7 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>0.25754064740929744</t>
+          <t>0.25717486308982895</t>
         </is>
       </c>
     </row>
@@ -23013,7 +23013,7 @@
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>0.19285735309809687</t>
+          <t>0.19265841838660752</t>
         </is>
       </c>
     </row>
@@ -23033,7 +23033,7 @@
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>0.08539404764770736</t>
+          <t>0.08503961778728734</t>
         </is>
       </c>
     </row>
@@ -23053,7 +23053,7 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>0.0648787397551054</t>
+          <t>0.0653138599123348</t>
         </is>
       </c>
     </row>
@@ -23073,7 +23073,7 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>0.20319444472615297</t>
+          <t>0.20182243948668643</t>
         </is>
       </c>
     </row>
@@ -23093,7 +23093,7 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>0.0627097833076991</t>
+          <t>0.06313021246665182</t>
         </is>
       </c>
     </row>
@@ -23113,7 +23113,7 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>0.05978460575887792</t>
+          <t>0.05943248428751712</t>
         </is>
       </c>
     </row>
@@ -23133,7 +23133,7 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>0.06777826308393269</t>
+          <t>0.06816491109364858</t>
         </is>
       </c>
     </row>
@@ -23153,7 +23153,7 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>0.014551069860205632</t>
+          <t>0.014597552346025725</t>
         </is>
       </c>
     </row>
@@ -23173,7 +23173,7 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>0.037797102260963035</t>
+          <t>0.037972674705879284</t>
         </is>
       </c>
     </row>
@@ -23193,7 +23193,7 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>0.07099111454026649</t>
+          <t>0.07140338840761047</t>
         </is>
       </c>
     </row>
@@ -23213,7 +23213,7 @@
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>0.07915042783285646</t>
+          <t>0.07967673038854518</t>
         </is>
       </c>
     </row>
@@ -23233,7 +23233,7 @@
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>0.006586403279697385</t>
+          <t>0.006600105901742599</t>
         </is>
       </c>
     </row>
@@ -23253,7 +23253,7 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>0.004665206796909935</t>
+          <t>0.004689408068681813</t>
         </is>
       </c>
     </row>
